--- a/Income/TWTR_inc.xlsx
+++ b/Income/TWTR_inc.xlsx
@@ -1961,10 +1961,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.6291</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.6324</v>
@@ -2081,10 +2079,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.0219</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0072</v>
@@ -2201,10 +2197,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0038</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-0.0137</v>
@@ -2321,10 +2315,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-0.2685</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-0.3054</v>
@@ -2441,10 +2433,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.0829</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.0757</v>
@@ -2555,10 +2545,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>592234000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>522000000.0</v>
@@ -3395,10 +3383,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.1405</v>
@@ -3515,10 +3501,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>0.3168</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.3082</v>
